--- a/DnsJava/AnalisiDnsJava.xlsx
+++ b/DnsJava/AnalisiDnsJava.xlsx
@@ -8018,13 +8018,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -55951,7 +55951,7 @@
         <v>0</v>
       </c>
       <c r="O1091" s="1">
-        <f t="shared" ref="O1091:O1154" si="17">J1091/K1091</f>
+        <f t="shared" ref="O1091:O1115" si="17">J1091/K1091</f>
         <v>2.6470588235294117</v>
       </c>
     </row>
@@ -75278,7 +75278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
       <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>

--- a/DnsJava/AnalisiDnsJava.xlsx
+++ b/DnsJava/AnalisiDnsJava.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="237">
   <si>
     <t>project</t>
   </si>
@@ -771,6 +771,9 @@
   <si>
     <t>Debt/Smell senza cloni</t>
   </si>
+  <si>
+    <t>differenza %</t>
+  </si>
 </sst>
 </file>
 
@@ -1256,9 +1259,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -75278,8 +75282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75457,27 +75461,36 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>226</v>
       </c>
       <c r="C25" t="s">
         <v>227</v>
       </c>
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
       <c r="J25" t="s">
         <v>228</v>
       </c>
       <c r="K25" t="s">
         <v>229</v>
       </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
       <c r="O25" t="s">
         <v>234</v>
       </c>
       <c r="P25" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -75489,6 +75502,10 @@
         <f>SUM(DebtFIleSenzaCloni2.1.5)/ROWS(DebtFIleSenzaCloni2.1.5)</f>
         <v>291.88372093023258</v>
       </c>
+      <c r="E26">
+        <f>(C26/B26*100)-100</f>
+        <v>-78.005716881724879</v>
+      </c>
       <c r="I26" t="s">
         <v>222</v>
       </c>
@@ -75500,6 +75517,10 @@
         <f>SUM(SmellFileSenzaCloni2.1.5)/ROWS(SmellFileSenzaCloni2.1.5)</f>
         <v>61.496124031007753</v>
       </c>
+      <c r="L26">
+        <f>(K26/J26*100)-100</f>
+        <v>-72.003635458287704</v>
+      </c>
       <c r="N26" t="s">
         <v>222</v>
       </c>
@@ -75511,8 +75532,12 @@
         <f>SUM(Debt_SmellSenzaCloni2.1.5)/ROWS(Debt_SmellSenzaCloni2.1.5)</f>
         <v>4.2464281911148518</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f>(P26/O26*100)-100</f>
+        <v>-23.427450058041458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -75524,6 +75549,10 @@
         <f>SUM(DebtFileSenzaCloni2.1.6)/ROWS(DebtFileSenzaCloni2.1.6)</f>
         <v>290.53076923076924</v>
       </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E29" si="0">(C27/B27*100)-100</f>
+        <v>-78.148266590581713</v>
+      </c>
       <c r="I27" t="s">
         <v>223</v>
       </c>
@@ -75535,6 +75564,10 @@
         <f>SUM(SmellFileSenzaCloni2.1.6)/ROWS(SmellFileSenzaCloni2.1.6)</f>
         <v>61.238461538461536</v>
       </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L29" si="1">(K27/J27*100)-100</f>
+        <v>-72.207599053107288</v>
+      </c>
       <c r="N27" t="s">
         <v>223</v>
       </c>
@@ -75546,8 +75579,12 @@
         <f>SUM(Debt_SmellSenzaCloni2.1.6)/ROWS(Debt_SmellSenzaCloni2.1.6)</f>
         <v>4.2664373869066221</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q29" si="2">(P27/O27*100)-100</f>
+        <v>-23.0486613604307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -75559,6 +75596,10 @@
         <f>SUM(DebtFileSenzaCloni2.1.7)/ROWS(DebtFileSenzaCloni2.1.7)</f>
         <v>320.57462686567163</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-74.691069056293216</v>
+      </c>
       <c r="I28" t="s">
         <v>224</v>
       </c>
@@ -75570,6 +75611,10 @@
         <f>SUM(SmellFileSenzaCloni2.1.7)/ROWS(SmellFileSenzaCloni2.1.7)</f>
         <v>63.962686567164177</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>-70.037554809046441</v>
+      </c>
       <c r="N28" t="s">
         <v>224</v>
       </c>
@@ -75581,8 +75626,12 @@
         <f>SUM(Debt_SmellSenzaCloni2.1.7)/ROWS(Debt_SmellSenzaCloni2.1.7)</f>
         <v>4.3167179300512517</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>-22.092030812872764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -75594,6 +75643,10 @@
         <f>SUM(DebtFileSenzaCloni2.1.8)/ROWS(DebtFileSenzaCloni2.1.8)</f>
         <v>319.4580152671756</v>
       </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-74.230926041783647</v>
+      </c>
       <c r="I29" t="s">
         <v>225</v>
       </c>
@@ -75605,6 +75658,10 @@
         <f>SUM(SmellFileSenzaCloni2.1.8)/ROWS(SmellFileSenzaCloni2.1.8)</f>
         <v>63.595419847328245</v>
       </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>-69.624506873706054</v>
+      </c>
       <c r="N29" t="s">
         <v>225</v>
       </c>
@@ -75616,13 +75673,18 @@
         <f>SUM(Debt_SmellSenzaCloni2.1.8)/ROWS(Debt_SmellSenzaCloni2.1.8)</f>
         <v>4.3065941124017266</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>-21.805887649392361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K30" s="1"/>
       <c r="P30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DnsJava/AnalisiDnsJava.xlsx
+++ b/DnsJava/AnalisiDnsJava.xlsx
@@ -1342,7 +1342,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1356,13 +1356,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Percentuale di file</a:t>
+              <a:t>Percentuale di file con cloni</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> con cloni</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1380,7 +1375,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1436,13 +1431,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1566,13 +1559,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1706,7 +1697,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1765,7 +1756,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1808,7 +1799,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1848,7 +1839,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1882,7 +1873,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1915,7 +1906,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1971,13 +1962,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2111,7 +2100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2170,7 +2159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2221,7 +2210,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2255,7 +2244,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2269,13 +2258,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Analisi dei</a:t>
+              <a:t>Analisi dei tipi di cloni</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> tipi di cloni</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2293,7 +2277,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2349,13 +2333,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2479,13 +2461,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2609,13 +2589,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2749,7 +2727,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2808,7 +2786,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2851,7 +2829,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2891,7 +2869,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2925,7 +2903,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2939,13 +2917,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Analisi</a:t>
+              <a:t>Analisi Technical debt</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Technical debt</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2963,7 +2936,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3019,13 +2992,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3149,13 +3120,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3288,7 +3257,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3338,7 +3307,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3371,7 +3340,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3403,7 +3372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3446,7 +3415,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3486,7 +3455,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3520,7 +3489,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3553,7 +3522,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3609,13 +3578,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3739,13 +3706,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3878,7 +3843,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3937,7 +3902,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3980,7 +3945,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4020,7 +3985,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4054,7 +4019,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4087,7 +4052,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4143,13 +4108,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4273,13 +4236,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4412,7 +4373,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4462,7 +4423,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4476,11 +4437,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Minuti</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> medi per singolo code smell</a:t>
+                  <a:t>Minuti medi per singolo code smell</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4499,7 +4456,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4531,7 +4488,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4574,7 +4531,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4614,7 +4571,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7900,20 +7857,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>306074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7930,20 +7889,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Grafico 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7965,10 +7926,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>20325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>155850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7995,10 +7956,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>155850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8026,9 +7987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>263212</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8055,10 +8016,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67949</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -75282,8 +75243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
